--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd80-Ctla4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd80-Ctla4.xlsx
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.08106466666666667</v>
+        <v>0.9620323333333333</v>
       </c>
       <c r="H2">
-        <v>0.243194</v>
+        <v>2.886097</v>
       </c>
       <c r="I2">
-        <v>0.0008070985645251863</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="J2">
-        <v>0.0008070985645251864</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06532700000000001</v>
+        <v>0.1258873333333333</v>
       </c>
       <c r="N2">
-        <v>0.195981</v>
+        <v>0.377662</v>
       </c>
       <c r="O2">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="P2">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="Q2">
-        <v>0.005295711479333335</v>
+        <v>0.1211076850237778</v>
       </c>
       <c r="R2">
-        <v>0.04766140331400001</v>
+        <v>1.089969165214</v>
       </c>
       <c r="S2">
-        <v>0.0002581238689442412</v>
+        <v>0.007244841823811792</v>
       </c>
       <c r="T2">
-        <v>0.0002581238689442413</v>
+        <v>0.007244841823811793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.08106466666666667</v>
+        <v>0.9620323333333333</v>
       </c>
       <c r="H3">
-        <v>0.243194</v>
+        <v>2.886097</v>
       </c>
       <c r="I3">
-        <v>0.0008070985645251863</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="J3">
-        <v>0.0008070985645251864</v>
+        <v>0.007300799806346596</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1389366666666667</v>
+        <v>0.0009723333333333333</v>
       </c>
       <c r="N3">
-        <v>0.41681</v>
+        <v>0.002917</v>
       </c>
       <c r="O3">
-        <v>0.680182966133641</v>
+        <v>0.007664637302636247</v>
       </c>
       <c r="P3">
-        <v>0.6801829661336409</v>
+        <v>0.007664637302636246</v>
       </c>
       <c r="Q3">
-        <v>0.01126285457111111</v>
+        <v>0.0009354161054444443</v>
       </c>
       <c r="R3">
-        <v>0.10136569114</v>
+        <v>0.008418744948999999</v>
       </c>
       <c r="S3">
-        <v>0.0005489746955809451</v>
+        <v>5.595798253480361E-05</v>
       </c>
       <c r="T3">
-        <v>0.0005489746955809451</v>
+        <v>5.595798253480361E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -673,40 +673,40 @@
         <v>3.359105</v>
       </c>
       <c r="I4">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="J4">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.06532700000000001</v>
+        <v>0.1258873333333333</v>
       </c>
       <c r="N4">
-        <v>0.195981</v>
+        <v>0.377662</v>
       </c>
       <c r="O4">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="P4">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="Q4">
-        <v>0.07314675077833334</v>
+        <v>0.1409562569455555</v>
       </c>
       <c r="R4">
-        <v>0.658320757005</v>
+        <v>1.26860631251</v>
       </c>
       <c r="S4">
-        <v>0.003565323070429145</v>
+        <v>0.008432212914041112</v>
       </c>
       <c r="T4">
-        <v>0.003565323070429145</v>
+        <v>0.008432212914041112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>3.359105</v>
       </c>
       <c r="I5">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="J5">
-        <v>0.01114800868273632</v>
+        <v>0.008497341958187089</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1389366666666667</v>
+        <v>0.0009723333333333333</v>
       </c>
       <c r="N5">
-        <v>0.41681</v>
+        <v>0.002917</v>
       </c>
       <c r="O5">
-        <v>0.680182966133641</v>
+        <v>0.007664637302636247</v>
       </c>
       <c r="P5">
-        <v>0.6801829661336409</v>
+        <v>0.007664637302636246</v>
       </c>
       <c r="Q5">
-        <v>0.1555676172277778</v>
+        <v>0.001088723253888889</v>
       </c>
       <c r="R5">
-        <v>1.40010855505</v>
+        <v>0.009798509285</v>
       </c>
       <c r="S5">
-        <v>0.007582685612307172</v>
+        <v>6.512904414597689E-05</v>
       </c>
       <c r="T5">
-        <v>0.007582685612307171</v>
+        <v>6.512904414597689E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.87603366666667</v>
+        <v>30.69779366666667</v>
       </c>
       <c r="H6">
-        <v>47.628101</v>
+        <v>92.09338099999999</v>
       </c>
       <c r="I6">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="J6">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.06532700000000001</v>
+        <v>0.1258873333333333</v>
       </c>
       <c r="N6">
-        <v>0.195981</v>
+        <v>0.377662</v>
       </c>
       <c r="O6">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="P6">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="Q6">
-        <v>1.037133651342333</v>
+        <v>3.864463383913555</v>
       </c>
       <c r="R6">
-        <v>9.334202862081002</v>
+        <v>34.780170455222</v>
       </c>
       <c r="S6">
-        <v>0.05055202719058482</v>
+        <v>0.2311779466750543</v>
       </c>
       <c r="T6">
-        <v>0.05055202719058483</v>
+        <v>0.2311779466750543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.87603366666667</v>
+        <v>30.69779366666667</v>
       </c>
       <c r="H7">
-        <v>47.628101</v>
+        <v>92.09338099999999</v>
       </c>
       <c r="I7">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="J7">
-        <v>0.158065461928175</v>
+        <v>0.2329635276189966</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1389366666666667</v>
+        <v>0.0009723333333333333</v>
       </c>
       <c r="N7">
-        <v>0.41681</v>
+        <v>0.002917</v>
       </c>
       <c r="O7">
-        <v>0.680182966133641</v>
+        <v>0.007664637302636247</v>
       </c>
       <c r="P7">
-        <v>0.6801829661336409</v>
+        <v>0.007664637302636246</v>
       </c>
       <c r="Q7">
-        <v>2.205763197534444</v>
+        <v>0.02984848804188889</v>
       </c>
       <c r="R7">
-        <v>19.85186877781</v>
+        <v>0.268636392377</v>
       </c>
       <c r="S7">
-        <v>0.1075134347375902</v>
+        <v>0.001785580943942291</v>
       </c>
       <c r="T7">
-        <v>0.1075134347375902</v>
+        <v>0.001785580943942291</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.120291</v>
+        <v>0.4642756666666667</v>
       </c>
       <c r="H8">
-        <v>3.360873</v>
+        <v>1.392827</v>
       </c>
       <c r="I8">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="J8">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.06532700000000001</v>
+        <v>0.1258873333333333</v>
       </c>
       <c r="N8">
-        <v>0.195981</v>
+        <v>0.377662</v>
       </c>
       <c r="O8">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="P8">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="Q8">
-        <v>0.073185250157</v>
+        <v>0.05844642560822222</v>
       </c>
       <c r="R8">
-        <v>0.658667251413</v>
+        <v>0.526017830474</v>
       </c>
       <c r="S8">
-        <v>0.003567199609325225</v>
+        <v>0.003496352098676624</v>
       </c>
       <c r="T8">
-        <v>0.003567199609325225</v>
+        <v>0.003496352098676624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.120291</v>
+        <v>0.4642756666666667</v>
       </c>
       <c r="H9">
-        <v>3.360873</v>
+        <v>1.392827</v>
       </c>
       <c r="I9">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="J9">
-        <v>0.01115387622166442</v>
+        <v>0.003523357354889427</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1389366666666667</v>
+        <v>0.0009723333333333333</v>
       </c>
       <c r="N9">
-        <v>0.41681</v>
+        <v>0.002917</v>
       </c>
       <c r="O9">
-        <v>0.680182966133641</v>
+        <v>0.007664637302636247</v>
       </c>
       <c r="P9">
-        <v>0.6801829661336409</v>
+        <v>0.007664637302636246</v>
       </c>
       <c r="Q9">
-        <v>0.1556494972366667</v>
+        <v>0.0004514307065555556</v>
       </c>
       <c r="R9">
-        <v>1.40084547513</v>
+        <v>0.004062876359</v>
       </c>
       <c r="S9">
-        <v>0.007586676612339192</v>
+        <v>2.700525621280328E-05</v>
       </c>
       <c r="T9">
-        <v>0.00758667661233919</v>
+        <v>2.700525621280328E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>64.94471299999999</v>
+        <v>87.34624366666667</v>
       </c>
       <c r="H10">
-        <v>194.834139</v>
+        <v>262.038731</v>
       </c>
       <c r="I10">
-        <v>0.6466045786795751</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="J10">
-        <v>0.6466045786795752</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.06532700000000001</v>
+        <v>0.1258873333333333</v>
       </c>
       <c r="N10">
-        <v>0.195981</v>
+        <v>0.377662</v>
       </c>
       <c r="O10">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="P10">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="Q10">
-        <v>4.242643266151</v>
+        <v>10.99578569188022</v>
       </c>
       <c r="R10">
-        <v>38.183789395359</v>
+        <v>98.96207122692199</v>
       </c>
       <c r="S10">
-        <v>0.2067951584377085</v>
+        <v>0.6577842525068865</v>
       </c>
       <c r="T10">
-        <v>0.2067951584377085</v>
+        <v>0.6577842525068865</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>64.94471299999999</v>
+        <v>87.34624366666667</v>
       </c>
       <c r="H11">
-        <v>194.834139</v>
+        <v>262.038731</v>
       </c>
       <c r="I11">
-        <v>0.6466045786795751</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="J11">
-        <v>0.6466045786795752</v>
+        <v>0.6628648713262609</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1389366666666667</v>
+        <v>0.0009723333333333333</v>
       </c>
       <c r="N11">
-        <v>0.41681</v>
+        <v>0.002917</v>
       </c>
       <c r="O11">
-        <v>0.680182966133641</v>
+        <v>0.007664637302636247</v>
       </c>
       <c r="P11">
-        <v>0.6801829661336409</v>
+        <v>0.007664637302636246</v>
       </c>
       <c r="Q11">
-        <v>9.023201941843332</v>
+        <v>0.08492966425855555</v>
       </c>
       <c r="R11">
-        <v>81.20881747659</v>
+        <v>0.764366978327</v>
       </c>
       <c r="S11">
-        <v>0.4398094202418666</v>
+        <v>0.005080618819374436</v>
       </c>
       <c r="T11">
-        <v>0.4398094202418666</v>
+        <v>0.005080618819374435</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.297808</v>
+        <v>11.180767</v>
       </c>
       <c r="H12">
-        <v>51.893424</v>
+        <v>33.54230099999999</v>
       </c>
       <c r="I12">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="J12">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.06532700000000001</v>
+        <v>0.1258873333333333</v>
       </c>
       <c r="N12">
-        <v>0.195981</v>
+        <v>0.377662</v>
       </c>
       <c r="O12">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="P12">
-        <v>0.319817033866359</v>
+        <v>0.9923353626973638</v>
       </c>
       <c r="Q12">
-        <v>1.130013903216</v>
+        <v>1.407516942251333</v>
       </c>
       <c r="R12">
-        <v>10.170125128944</v>
+        <v>12.667652480262</v>
       </c>
       <c r="S12">
-        <v>0.0550792016893671</v>
+        <v>0.08419975667889336</v>
       </c>
       <c r="T12">
-        <v>0.0550792016893671</v>
+        <v>0.08419975667889336</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.297808</v>
+        <v>11.180767</v>
       </c>
       <c r="H13">
-        <v>51.893424</v>
+        <v>33.54230099999999</v>
       </c>
       <c r="I13">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="J13">
-        <v>0.172220975923324</v>
+        <v>0.08485010193531929</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1389366666666667</v>
+        <v>0.0009723333333333333</v>
       </c>
       <c r="N13">
-        <v>0.41681</v>
+        <v>0.002917</v>
       </c>
       <c r="O13">
-        <v>0.680182966133641</v>
+        <v>0.007664637302636247</v>
       </c>
       <c r="P13">
-        <v>0.6801829661336409</v>
+        <v>0.007664637302636246</v>
       </c>
       <c r="Q13">
-        <v>2.40329978416</v>
+        <v>0.01087143244633333</v>
       </c>
       <c r="R13">
-        <v>21.62969805744</v>
+        <v>0.09784289201699999</v>
       </c>
       <c r="S13">
-        <v>0.1171417742339569</v>
+        <v>0.0006503452564259362</v>
       </c>
       <c r="T13">
-        <v>0.1171417742339569</v>
+        <v>0.0006503452564259361</v>
       </c>
     </row>
   </sheetData>
